--- a/data/evaluation/evaluation_North_Winter_Turnip.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Turnip.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1609.959902310631</v>
+        <v>1390.024314134259</v>
       </c>
       <c r="C4" t="n">
-        <v>5609747.24359152</v>
+        <v>3816323.789456881</v>
       </c>
       <c r="D4" t="n">
-        <v>2368.490498944744</v>
+        <v>1953.541345724958</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.82862341424676</v>
+        <v>-7.047039371316755</v>
       </c>
     </row>
     <row r="5">
